--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AMP.XLSX
@@ -133,7 +133,7 @@
     <t>DANIEL JOSE DE AGUIAR</t>
   </si>
   <si>
-    <t>CARLOS ALBERTO C. MONSORES</t>
+    <t>JOSE COELHO CABRAL</t>
   </si>
   <si>
     <t> </t>
@@ -151,7 +151,7 @@
     <t>1423</t>
   </si>
   <si>
-    <t>2102</t>
+    <t>2898</t>
   </si>
   <si>
     <t> </t>
@@ -3524,7 +3524,7 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
@@ -3551,7 +3551,7 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3904,7 +3904,7 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
@@ -3931,7 +3931,7 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6634,7 +6634,7 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>CARLOS ALBERTO C. MONSORES</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
@@ -6966,7 +6966,7 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2102</v>
+        <v>2898</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AMP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_AMP.XLSX
@@ -136,16 +136,16 @@
     <t>JOSE COELHO CABRAL</t>
   </si>
   <si>
-    <t> </t>
+    <t>THIAGO PEREIRA DA SILVA</t>
   </si>
   <si>
-    <t> </t>
+    <t>RODRIGO SOUZA SANTOS</t>
   </si>
   <si>
-    <t> </t>
+    <t>LUIS MARCELO DE O. CRAVEIRO</t>
   </si>
   <si>
-    <t> </t>
+    <t>LEONARDO DE JESUS LISBOA</t>
   </si>
   <si>
     <t>1423</t>
@@ -154,16 +154,16 @@
     <t>2898</t>
   </si>
   <si>
-    <t> </t>
+    <t>3493</t>
   </si>
   <si>
-    <t> </t>
+    <t>3548</t>
   </si>
   <si>
-    <t> </t>
+    <t>3549</t>
   </si>
   <si>
-    <t> </t>
+    <t>4012</t>
   </si>
   <si>
     <t>SETOR IMC
@@ -173,10 +173,10 @@
     <t>IMC_AMP</t>
   </si>
   <si>
-    <t>DANIEL JOSE DE AGUIAR</t>
+    <t>JOSE COELHO CABRAL</t>
   </si>
   <si>
-    <t>Matr.: 1423</t>
+    <t>Matr.: 2898</t>
   </si>
   <si>
     <r>
@@ -3528,19 +3528,19 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3555,19 +3555,19 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3579,19 +3579,19 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3603,19 +3603,19 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3908,19 +3908,19 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4012</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3935,19 +3935,19 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4012</v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3959,19 +3959,19 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4012</v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3983,19 +3983,19 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4012</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>DANIEL JOSE DE AGUIAR</v>
+        <v>JOSE COELHO CABRAL</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6415,7 +6415,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 1423</v>
+        <v>Matr.: 2898</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6613,19 +6613,19 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6638,19 +6638,19 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>THIAGO PEREIRA DA SILVA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>RODRIGO SOUZA SANTOS</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LUIS MARCELO DE O. CRAVEIRO</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>LEONARDO DE JESUS LISBOA</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6945,19 +6945,19 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4012</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6970,19 +6970,19 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3493</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3548</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3549</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4012</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>
